--- a/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE9234-E72D-4546-83EF-D4CB7D6C7FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7338F-CBCA-484B-8E94-55CE8E428890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/pmswi</t>
+  </si>
+  <si>
+    <t>HIPÉRICO ARKOPHARMA hard capsules</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -1456,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,8 +1572,24 @@
         <v>148</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7338F-CBCA-484B-8E94-55CE8E428890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34E51F-185E-CC46-9ED3-6AAE784EE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -665,7 +665,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,6 +767,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC3E88D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -789,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,6 +822,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1341,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,8 +1384,8 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
+      <c r="C2" s="20">
+        <v>79963</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1461,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G6:G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1543,9 @@
       <c r="C2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="20">
+        <v>79963</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1576,7 +1585,9 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="20">
+        <v>79963</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>57</v>
       </c>

--- a/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/data/HIPÉRICO ARKOPHARMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34E51F-185E-CC46-9ED3-6AAE784EE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D28E7-549A-B04F-AF1E-A298D8BD0A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -461,204 +461,396 @@
   </si>
   <si>
     <t>hard capsule</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi</t>
+  </si>
+  <si>
+    <t>HIPÉRICO ARKOPHARMA hard capsules</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
 &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;PROSPECTO: INFORMACIÓN PARA EL USUARIO&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-   &lt;p style="margin:0pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;HIPÉRICO ARKOPHARMA cápsulas duras&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;em&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt;&lt;/strong&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;L.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:center; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento, porque contiene información importante para usted.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las indicadas por su farmacéutico, médico o enfermero.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;- Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;- Si necesita consejo o más información, consulte a su farmacéutico.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;- Si experimenta efectos adversos, consulte a su médico, farmacéutico o enfermero, incluso si se trata de efectos adversos que no aparecen en este prospecto.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;- Debe consultar a un médico si empeora o si no mejora después de 28 días de tratamiento.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;PROSPECTO: INFORMACIÓN PARA EL USUARIO&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;span&gt;HIPÉRICO ARKOPHARMA cápsulas duras&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt;&lt;/strong&gt; &lt;strong&gt;&lt;span&gt;L.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento, porque contiene información importante para usted.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las indicadas por su farmacéutico, médico o enfermero.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- Si necesita consejo o más información, consulte a su farmacéutico.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- Si experimenta efectos adversos, consulte a su médico, farmacéutico o enfermero, incluso si se trata de efectos adversos que no aparecen en este prospecto.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- Debe consultar a un médico si empeora o si no mejora después de 28 días de tratamiento.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
-      &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Contenido del prospecto&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;1. Qué es&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;y para qué se utiliza&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;2. Qué necesita saber antes de empezar a tomar&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;3. Cómo tomar&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;4. Posibles efectos adversos&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;5. Conservación de&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;6. Contenido del envase e información adicional.&lt;/span&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;strong&gt;&lt;span&gt;Contenido del prospecto&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;1. Qué es&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span&gt;y para qué se utiliza&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;2. Qué necesita saber antes de empezar a tomar&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;3. Cómo tomar&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;4. Posibles efectos adversos&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;5. Conservación de&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span&gt;6. Contenido del envase e información adicional.&lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
 &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Medicamento a base de plantas para el tratamiento sintomático de los estados de decaimiento que cursan con desánimo, pérdida de interés, cansancio y alteraciones del sueño.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Debe consultar a un médico si empeora o si no mejora después de 28 días.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;LEAFLET: INFORMATION FOR THE USER&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;span&gt;HYPERICUM ARKOPHARMA hard capsules&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt;&lt;/strong&gt; &lt;strong&gt;&lt;span&gt;L.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Read the entire leaflet carefully before you start taking this medicine, as it contains important information for you.&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Follow the exact administration instructions contained in this leaflet or as directed by your pharmacist, doctor, or nurse.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- Keep this leaflet, as you may need to read it again.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- If you need advice or more information, consult your pharmacist.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- If you experience adverse effects, consult your doctor, pharmacist, or nurse, even if they are not listed in this leaflet.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;- You should consult a doctor if your condition worsens or does not improve after 28 days of treatment.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:9pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:9pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;No tome HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;ul type="disc" style="margin:0pt; padding-left:0pt"&gt;
-      &lt;li style="margin:0pt 0pt 0pt 21.3pt; text-indent:-18pt; text-align:justify; font-family:serif; font-size:11pt; list-style-position:inside"&gt;&lt;span style="font:7.0pt Times New Roman"&gt;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si es menor de 18 años.&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 21.3pt; text-indent:-18pt; text-align:justify; font-family:serif; font-size:11pt; list-style-position:inside"&gt;&lt;span style="font:7.0pt Times New Roman"&gt;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si usted está embarazada o en periodo de lactancia.&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 21.3pt; text-indent:-18pt; text-align:justify; font-family:serif; font-size:11pt; list-style-position:inside"&gt;&lt;span style="font:7.0pt Times New Roman"&gt;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si es alérgico a&lt;/span&gt; &lt;em&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;L. o a cualquiera de los componentes del medicamento.&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 21.3pt; text-indent:-18pt; text-align:justify; font-family:serif; font-size:11pt; list-style-position:inside"&gt;&lt;span style="font:7.0pt Times New Roman"&gt;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si va a someterse a alguna intervención quirúrgica que requiera tratamiento con otros medicamentos.&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 21.3pt; text-indent:-18pt; text-align:justify; font-family:serif; font-size:11pt; list-style-position:inside"&gt;&lt;span style="font:7.0pt Times New Roman"&gt;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&amp;#xa0;&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si usted está en tratamiento con alguno de los medicamentos indicados en este prospecto. Algunos componentes del hipérico (&lt;/span&gt;&lt;em&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;L.) pueden producir interacciones farmacocinéticas con gran número de medicamentos, ocasionando un posible descenso de su efectividad&amp;nbsp; (ver la información sobre la toma de otros medicamentos).&lt;/span&gt;&lt;/li&gt;
-    &lt;/ul&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Advertencias y precauciones&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Consulte a su farmacéutico, médico o enfermero antes de empezar a tomar HIPÉRICO ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si usted está tomando HIPÉRICO ARKOPHARMA, evite exposiciones intensas a los rayos UV (largas exposiciones al sol o baños de rayos UVA).&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Las mujeres que utilizan anticonceptivos orales no deben utilizar simultáneamente este medicamento porque puede producir sangrado entre los ciclos menstruales y falta de eficacia&amp;nbsp; de los medicamentos anticonceptivos.&lt;/span&gt;&lt;a name="OLE_LINK3" id="OLE_LINK3"&gt;&lt;/a&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:9pt"&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Evite las exposiciones a radiación solar intensa o a radiación ultravioleta artificial durante la toma de&amp;nbsp; este medicamento. No se recomienda el uso de este medicamento durante tratamientos de fototerapia (tratamientos con rayos UVA) o si va a ser sometido a algún estudio de fotodiagnóstico, particularmente en personas de piel clara, ya que se podrían producir&amp;nbsp; reacciones similares a las quemaduras solares en la piel expuesta&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si usted ha sido diagnosticado de depresión y está en tratamiento con medicamentos psicotrópicos o con antidepresivos inhibidores selectivos de la recaptación de serotonina o medicamentos del grupo de los triptanos, no debe utilizar este medicamento.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Se deberá dejar de tomar este medicamento 10 días antes de una operación quirúrgica u otra intervención clínica programada a fin de evitar interacciones potenciales con otros medicamentos, durante el uso de anestesia general o local.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Niños y adolescentes&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No deben utilizar este medicamento los niños y adolescentes menores de 18 años.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Uso de HIPÉRICO ARKOPHARMA&amp;nbsp; con otros medicamentos&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Algunos componentes del hipérico (&lt;/span&gt;&lt;em&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;L.) pueden producir una reducción de los efectos terapéuticos de otros medicamentos, cuando se toman simultáneamente con hipérico. En los tratamientos que pueden verse afectados por este medicamento se incluyen los medicamentos recomendados por su médico y también los que usted puede adquirir sin prescripción del médico.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No deben comenzar a utilizar preparados de hipérico sin consultar antes con su médico o farmacéutico, los pacientes que estén tomando los siguientes medicamentos:&lt;/span&gt;&lt;/p&gt;
-    &lt;ul type="disc" style="margin:0pt; padding-left:0pt"&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para el SIDA (antirretrovirales)&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para el rechazo de trasplantes (ciclosporina)&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para la epilepsia&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para el corazón (digoxina)&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para el tratamiento del asma o bronquitis crónica (teofilina)&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para la migraña&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;para la depresión&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;anticoagulantes orales&lt;/span&gt;&lt;/li&gt;
-      &lt;li style="margin:0pt 0pt 0pt 28.06pt; text-indent:0pt; text-align:justify; padding-left:7.94pt; font-family:serif; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;anticonceptivos orales&lt;/span&gt;&lt;/li&gt;
-    &lt;/ul&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Para mayor información, consulte la siguiente lista:&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No tome este medicamento si usted está en tratamiento con cualquier medicamento de los indicados en este listado:&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Agonistas 5HT (Triptanes):&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como almotriptan, eleptriptan, frovatriptan, naratriptan, rizatriptan, sumatriptan, zolmitriptan;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Analgésicos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como tramadol;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Anestésicos/ medicamentos para la preparación de una intervención quirúrgica&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;: tales como fentanilo, propofol, midazolam, sevoflurano;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Ansiolíticos&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;: tales como buspirona;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antagonistas hormonales:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp; tales como exemestano;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antianginosos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como ivabradina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antiarrítmicos&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;: tales como amiodarona;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Antibacterianos&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;: tales como eritromicina, claritromicina, telitromicina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Anticoagulantes:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como warfarina, acenocumarol;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Anticonceptivos Hormonales:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;anticonceptivos orales, anticonceptivos hormonales de emergencia (Píldora del día después), implantes e inyecciones hormonales, parches transdérmicos, dispositivos intrauterinos con hormonas;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Anticonvulsivantes (Antiepilépticos):&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como carbamazepina, fenobarbital, fenitoína, primidona, valproato sódico;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antidepresivos Tricíclicos&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;: tales como amitriptilina, clomipramina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;IMAO:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como moclobemida;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;ISRS&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(inhibidores selectivos de la recaptación de serotonina) tales como citalopram, fluoxetina, fluvoxamina, paroxetina, sertralina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Otros antidepresivos&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;como duloxetina, venlafaxina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antifúngicos:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp; tales como itraconazol, voriconazol;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antimaláricos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como lumefantrina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antiparkinsonianos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como rasagilina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Antisicóticos:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp; tales como aripiprazol;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Todos los Antivirales:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp; tales como&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Inhibidores de Proteasa&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(amprenavir, atazanavir, darunavir, fosamprenavir indinavir, lopinavir, nelfinavir, ritonavir, saquinavir, tipranavir);&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Inhibidores de transcriptasa inversa no nucleósidos&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(efavirenz, nevirapina, delavirdina);&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Aprepitant&lt;/span&gt;&lt;/strong&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;(&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;se utiliza para evitar vómitos, tras un tratamiento con quimioterapia);&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Barbituratos&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como butobarbital, fenobarbital;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Bloqueadores de los canales del Calcio:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como amlodipina, nifedipina, verapamilo, felodipina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Citotóxicos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;como irinotecan, dasatinib, erlotinib, imatinib, sorafenib, sunitinib, etoposido, mitotano;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Diuréticos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como eplerenona;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Estimulantes de SNC:&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;nbsp; tales como metilfenidato;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Glucósidos cardiacos:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como digoxina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Hipoglucemiantes orales&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;(antidiabéticos orales): tales como gliclazida;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Hipolipemiantes:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como&amp;nbsp; simvastatina, atorvastatina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Hormonas tiroideas:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;todos los medicamentos de esta clase incluido Tiroxina;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Inhibidores de la bomba de protones:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como lansoprazol, omeprazol;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Inmunosupresores:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como ciclosporina, tacrolimus;&lt;/span&gt; &lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;•Litio; •Teofilina; •Terapia hormonal de remplazo:&lt;/span&gt;&lt;/strong&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;tales como los parches, geles, anillo vaginal)&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En caso de tratamiento concomitante de HIPÉRICO ARKOPHARMA con medicamentos anticoagulantes (como fenprocumona, warfarina, clopidogrel, ácido acetilsalicílico y otros antireumáticos no esteroideos) no puede excluirse que el efecto de estas preparaciones se vea aumentado&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:9pt"&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No puede excluirse que HIPÉRICO ARKOPHARMA actúe sobre la metabolización de otros medicamentos lo que puede afectar a la potencia y/o duración del efecto de los medicamentos a los que se refiere. Por esta razón, consulte con su médico o farmacéutico antes de tomar HIPÉRICO ARKOPHARMA con otros tratamientos.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Informe a su médico o farmacéutico si está tomando o ha tomado recientemente cualquier otro medicamento, incluso los adquiridos sin receta médica.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Informe también a su médico o farmacéutico sobre cualquier sospecha de cambio en los efectos de los medicamentos que está tomando a la vez que HIPÉRICO ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Toma de HIPÉRICO ARKOPHARMA con los alimentos y bebidas&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los alimentos y las bebidas no tienen influencia sobre el efecto del medicamento.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Embarazo, lactancia y fertilidad&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si está embarazada o en periodo de lactancia, cree que pudiera estar embarazada o tiene intención de quedarse embarazada, consulte a su farmacéutico o médico antes de utilizar este medicamento. No se recomienda su administración en estas circunstancias.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Conducción y uso de máquinas&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No se han realizado estudios sobre la capacidad de conducir y el uso de máquinas&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;.&lt;/span&gt;&lt;/p&gt;
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+&lt;div&gt;
+    &lt;p&gt;&lt;span&gt;Medicamento a base de plantas para el tratamiento sintomático de los estados de decaimiento que cursan con desánimo, pérdida de interés, cansancio y alteraciones del sueño.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Debe consultar a un médico si empeora o si no mejora después de 28 días.&lt;/span&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
-            &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las indicadas por su farmacéutico, médico o enfermero. En caso de duda, pregunte a su farmacéutico, médico o enfermero.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La dosis recomendada es:&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Adultos: tomar 2 cápsulas, 2 ó 3 veces al día con un vaso de agua.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Es aconsejable que las tomas se realicen siempre a las mismas horas.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Este medicamento se utiliza vía oral.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La duración de tratamiento es de 6 semanas.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;El efecto del medicamento aparece generalmente a las 4 semanas. Si los síntomas persisten, debería consultar con un profesional sanitario.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Una vez abierto el envase, se retirará la bolsita absorbente que no es apta para consumo humano y no debe ser ingerida.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Uso en niños y adolescentes&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No utilizar en niños y adolescentes menores de 18 años&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Si toma más HIPÉRICO ARKOPHARMA del que debe&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si se ha tomado una dosis excesiva de HIPÉRICO ARKOPHARMA pueden aparecer convulsiones o estado de confusión.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En caso de la toma de una dosis excesiva de hipérico, se debe proteger de las radiaciones solares o de cualquier otra fuente de rayos UV durante 1-2 semanas.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En caso de sobredosis o ingestión accidental, consulte inmediatamente a su farmacéutico o médico o llame al Servicio de Información Toxicológica, teléfono 91 562 04 20, indicando el producto y la cantidad ingerida.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Si olvidó tomar HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En caso de olvido de una dosis, tome el medicamento lo antes posible continuando el tratamiento de la forma prescrita. Sin embargo, si está próxima la siguiente dosis, es mejor que no tome la dosis olvidada y espere a la siguiente. En ningún caso tome una dosis doble para compensar la dosis olvidada&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;.&lt;/span&gt;&lt;/p&gt;   
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;No tome HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;ul&gt;
+      &lt;li&gt; &lt;span&gt;Si es menor de 18 años.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;Si usted está embarazada o en periodo de lactancia.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;Si es alérgico a&lt;/span&gt; &lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L. o a cualquiera de los componentes del medicamento.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;Si va a someterse a alguna intervención quirúrgica que requiera tratamiento con otros medicamentos.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;Si usted está en tratamiento con alguno de los medicamentos indicados en este prospecto. Algunos componentes del hipérico (&lt;/span&gt;&lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L.) pueden producir interacciones farmacocinéticas con gran número de medicamentos, ocasionando un posible descenso de su efectividad; (ver la información sobre la toma de otros medicamentos).&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Advertencias y precauciones&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Consulte a su farmacéutico, médico o enfermero antes de empezar a tomar HIPÉRICO ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Si usted está tomando HIPÉRICO ARKOPHARMA, evite exposiciones intensas a los rayos UV (largas exposiciones al sol o baños de rayos UVA).&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Las mujeres que utilizan anticonceptivos orales no deben utilizar simultáneamente este medicamento porque puede producir sangrado entre los ciclos menstruales y falta de eficacia; de los medicamentos anticonceptivos.&lt;/span&gt;&lt;a name="OLE_LINK3" id="OLE_LINK3"&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Evite las exposiciones a radiación solar intensa o a radiación ultravioleta artificial durante la toma de; este medicamento. No se recomienda el uso de este medicamento durante tratamientos de fototerapia (tratamientos con rayos UVA) o si va a ser sometido a algún estudio de fotodiagnóstico, particularmente en personas de piel clara, ya que se podrían producir; reacciones similares a las quemaduras solares en la piel expuesta&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Si usted ha sido diagnosticado de depresión y está en tratamiento con medicamentos psicotrópicos o con antidepresivos inhibidores selectivos de la recaptación de serotonina o medicamentos del grupo de los triptanos, no debe utilizar este medicamento.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Se deberá dejar de tomar este medicamento 10 días antes de una operación quirúrgica u otra intervención clínica programada a fin de evitar interacciones potenciales con otros medicamentos, durante el uso de anestesia general o local.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Niños y adolescentes&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No deben utilizar este medicamento los niños y adolescentes menores de 18 años.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Uso de HIPÉRICO ARKOPHARMA con otros medicamentos&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Algunos componentes del hipérico (&lt;/span&gt;&lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L.) pueden producir una reducción de los efectos terapéuticos de otros medicamentos, cuando se toman simultáneamente con hipérico. En los tratamientos que pueden verse afectados por este medicamento se incluyen los medicamentos recomendados por su médico y también los que usted puede adquirir sin prescripción del médico.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No deben comenzar a utilizar preparados de hipérico sin consultar antes con su médico o farmacéutico, los pacientes que estén tomando los siguientes medicamentos:&lt;/span&gt;&lt;/p&gt;
+    &lt;ul&gt;
+      &lt;li&gt;&lt;span&gt;para el SIDA (antirretrovirales)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para el rechazo de trasplantes (ciclosporina)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para la epilepsia&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para el corazón (digoxina)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para el tratamiento del asma o bronquitis crónica (teofilina)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para la migraña&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;para la depresión&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;anticoagulantes orales&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;anticonceptivos orales&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&lt;span&gt;Para mayor información, consulte la siguiente lista:&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No tome este medicamento si usted está en tratamiento con cualquier medicamento de los indicados en este listado:&lt;/span&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Agonistas 5HT (Triptanes): tales como almotriptan, eleptriptan, frovatriptan, naratriptan, rizatriptan, sumatriptan, zolmitriptan;&lt;/li&gt;
+&lt;li&gt;Analgésicos: tales como tramadol;&lt;/li&gt;
+&lt;li&gt;Anestésicos/ medicamentos para la preparación de una intervención quirúrgica: tales como fentanilo, propofol, midazolam, sevoflurano;&lt;/li&gt;
+&lt;li&gt;Ansiolíticos: tales como buspirona;&lt;/li&gt;
+&lt;li&gt;Antagonistas hormonales:; tales como exemestano;&lt;/li&gt;
+&lt;li&gt;Antianginosos: tales como ivabradina;&lt;/li&gt;
+&lt;li&gt;Antiarrítmicos: tales como amiodarona; Antibacterianos: tales como eritromicina, claritromicina, telitromicina;&lt;/li&gt;
+&lt;li&gt;Anticoagulantes: tales como warfarina, acenocumarol;&lt;/li&gt;
+&lt;li&gt;Anticonceptivos Hormonales: anticonceptivos orales, anticonceptivos hormonales de emergencia (Píldora del día después), implantes e inyecciones hormonales, parches transdérmicos, dispositivos intrauterinos con hormonas;&lt;/li&gt;
+&lt;li&gt;Anticonvulsivantes (Antiepilépticos): tales como carbamazepina, fenobarbital, fenitoína, primidona, valproato sódico;&lt;/li&gt;
+&lt;li&gt;Antidepresivos Tricíclicos: tales como amitriptilina, clomipramina; IMAO: tales como moclobemida; ISRS (inhibidores selectivos de la recaptación de serotonina) tales como citalopram, fluoxetina, fluvoxamina, paroxetina, sertralina; Otros antidepresivos como duloxetina, venlafaxina;&lt;/li&gt;
+&lt;li&gt;Antifúngicos:; tales como itraconazol, voriconazol;&lt;/li&gt;
+&lt;li&gt;Antimaláricos: tales como lumefantrina;&lt;/li&gt;
+&lt;li&gt;Antiparkinsonianos: tales como rasagilina;&lt;/li&gt;
+&lt;li&gt;Antisicóticos:; tales como aripiprazol;&lt;/li&gt;
+&lt;li&gt;Todos los Antivirales:; tales como Inhibidores de Proteasa (amprenavir, atazanavir, darunavir, fosamprenavir indinavir, lopinavir, nelfinavir, ritonavir, saquinavir, tipranavir); Inhibidores de transcriptasa inversa no nucleósidos (efavirenz, nevirapina, delavirdina);&lt;/li&gt;
+&lt;li&gt;Aprepitant (se utiliza para evitar vómitos, tras un tratamiento con quimioterapia);&lt;/li&gt;
+&lt;li&gt;Barbituratos tales como butobarbital, fenobarbital;&lt;/li&gt;
+&lt;li&gt;Bloqueadores de los canales del Calcio: tales como amlodipina, nifedipina, verapamilo, felodipina;&lt;/li&gt;
+&lt;li&gt;Citotóxicos: como irinotecan, dasatinib, erlotinib, imatinib, sorafenib, sunitinib, etoposido, mitotano;&lt;/li&gt;
+&lt;li&gt;Diuréticos: tales como eplerenona;&lt;/li&gt;
+&lt;li&gt;Estimulantes de SNC:; tales como metilfenidato;&lt;/li&gt;
+&lt;li&gt;Glucósidos cardiacos: tales como digoxina;&lt;/li&gt;
+&lt;li&gt;Hipoglucemiantes orales (antidiabéticos orales): tales como gliclazida;&lt;/li&gt;
+&lt;li&gt;Hipolipemiantes: tales como; simvastatina, atorvastatina;&lt;/li&gt;
+&lt;li&gt;Hormonas tiroideas: todos los medicamentos de esta clase incluido Tiroxina;&lt;/li&gt;
+&lt;li&gt;Inhibidores de la bomba de protones: tales como lansoprazol, omeprazol;&lt;/li&gt;
+&lt;li&gt;Inmunosupresores: tales como ciclosporina, tacrolimus;&lt;/li&gt;
+&lt;li&gt;Litio;&lt;/li&gt;
+&lt;li&gt;Teofilina;&lt;/li&gt;
+&lt;li&gt;Terapia hormonal de remplazo: tales como los parches, geles, anillo vaginal)&lt;/li&gt;
+&lt;/ul&gt;
+    &lt;p&gt;&lt;span&gt;En caso de tratamiento concomitante de HIPÉRICO ARKOPHARMA con medicamentos anticoagulantes (como fenprocumona, warfarina, clopidogrel, ácido acetilsalicílico y otros antireumáticos no esteroideos) no puede excluirse que el efecto de estas preparaciones se vea aumentado&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No puede excluirse que HIPÉRICO ARKOPHARMA actúe sobre la metabolización de otros medicamentos lo que puede afectar a la potencia y/o duración del efecto de los medicamentos a los que se refiere. Por esta razón, consulte con su médico o farmacéutico antes de tomar HIPÉRICO ARKOPHARMA con otros tratamientos.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Informe a su médico o farmacéutico si está tomando o ha tomado recientemente cualquier otro medicamento, incluso los adquiridos sin receta médica.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Informe también a su médico o farmacéutico sobre cualquier sospecha de cambio en los efectos de los medicamentos que está tomando a la vez que HIPÉRICO ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Toma de HIPÉRICO ARKOPHARMA con los alimentos y bebidas&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Los alimentos y las bebidas no tienen influencia sobre el efecto del medicamento.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Embarazo, lactancia y fertilidad&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Si está embarazada o en periodo de lactancia, cree que pudiera estar embarazada o tiene intención de quedarse embarazada, consulte a su farmacéutico o médico antes de utilizar este medicamento. No se recomienda su administración en estas circunstancias.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Conducción y uso de máquinas&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No se han realizado estudios sobre la capacidad de conducir y el uso de máquinas&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+      &lt;p&gt;&lt;strong&gt;&lt;span&gt;Contents of the leaflet&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;1. What&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span&gt;is and what it is used for&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;2. What you need to know before you start taking&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;3. How to take&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;4. Possible side effects&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;5. Storage of&lt;/span&gt; &lt;strong&gt;&lt;span&gt;HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt; &lt;span&gt;6. Package contents and additional information.&lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
             &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas las personas los sufran.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;En casos raros, con una frecuencia que afecta a menos de un caso por cada 1000 pacientes, se han descrito problemas digestivos tales como náusea, dolor abdominal, diarrea, pérdida de apetito; o reacciones en la piel como picor, irritación, enrojecimiento (urticaria) y muy raramente podrían ocurrir reacciones similares a las quemaduras solares, en la piel expuesta a radiación solar o artificial intensa.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;También se ha descrito dolor de cabeza, neuropatía, ansiedad, mareo, fatiga, manía o alergias, para los que se desconoce la frecuencia de aparición.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Comunicación de reacciones adversas&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;:&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico, incluso si se trata de posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos directamente a través del Sistema Español de Farmacovigilancia de medicamentos de Uso Humano:&lt;/span&gt; &lt;a href="https://www.notificaram.es"&gt;&lt;u&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; color:#0000ff"&gt;https://www.notificaram.es&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;. Mediante la comunicación de efectos adversos usted puede contribuir a proporcionar más información sobre la seguridad de este medicamento.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:9pt"&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Siga exactamente las instrucciones de administración del medicamento contenidas en este prospecto o las indicadas por su farmacéutico, médico o enfermero. En caso de duda, pregunte a su farmacéutico, médico o enfermero.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;La dosis recomendada es:&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Adultos: tomar 2 cápsulas, 2 ó 3 veces al día con un vaso de agua.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Es aconsejable que las tomas se realicen siempre a las mismas horas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Este medicamento se utiliza vía oral.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;La duración de tratamiento es de 6 semanas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;El efecto del medicamento aparece generalmente a las 4 semanas. Si los síntomas persisten, debería consultar con un profesional sanitario.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Una vez abierto el envase, se retirará la bolsita absorbente que no es apta para consumo humano y no debe ser ingerida.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Uso en niños y adolescentes&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No utilizar en niños y adolescentes menores de 18 años&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Si toma más HIPÉRICO ARKOPHARMA del que debe&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Si se ha tomado una dosis excesiva de HIPÉRICO ARKOPHARMA pueden aparecer convulsiones o estado de confusión.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;En caso de la toma de una dosis excesiva de hipérico, se debe proteger de las radiaciones solares o de cualquier otra fuente de rayos UV durante 1-2 semanas.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;En caso de sobredosis o ingestión accidental, consulte inmediatamente a su farmacéutico o médico o llame al Servicio de Información Toxicológica, teléfono 91 562 04 20, indicando el producto y la cantidad ingerida.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Si olvidó tomar HIPÉRICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;En caso de olvido de una dosis, tome el medicamento lo antes posible continuando el tratamiento de la forma prescrita. Sin embargo, si está próxima la siguiente dosis, es mejor que no tome la dosis olvidada y espere a la siguiente. En ningún caso tome una dosis doble para compensar la dosis olvidada&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;   
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+            &lt;div&gt;
+    &lt;p&gt;&lt;span&gt;Al igual que todos los medicamentos, este medicamento puede producir efectos adversos, aunque no todas las personas los sufran.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;En casos raros, con una frecuencia que afecta a menos de un caso por cada 1000 pacientes, se han descrito problemas digestivos tales como náusea, dolor abdominal, diarrea, pérdida de apetito; o reacciones en la piel como picor, irritación, enrojecimiento (urticaria) y muy raramente podrían ocurrir reacciones similares a las quemaduras solares, en la piel expuesta a radiación solar o artificial intensa.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;También se ha descrito dolor de cabeza, neuropatía, ansiedad, mareo, fatiga, manía o alergias, para los que se desconoce la frecuencia de aparición.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Comunicación de reacciones adversas&lt;/span&gt;&lt;/strong&gt;&lt;span&gt;:&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico o farmacéutico, incluso si se trata de posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos directamente a través del Sistema Español de Farmacovigilancia de medicamentos de Uso Humano:&lt;/span&gt; &lt;a href="https://www.notificaram.es"&gt;&lt;u&gt;&lt;span&gt;https://www.notificaram.es&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;span&gt;. Mediante la comunicación de efectos adversos usted puede contribuir a proporcionar más información sobre la seguridad de este medicamento.&lt;/span&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
            &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No conservar a temperatura superior a 25ºC.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Una vez abierto, desechar después de 21 días.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;No utilice HIPÉRICO ARKOPHARMA después de la fecha de caducidad que aparece en el envase, después de la abreviatura “CAD”. La fecha de caducidad es el último día del mes que se indica.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los medicamentos que no necesite en el Punto SIGRE&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;de la farmacia. En caso de duda pregunte a su farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma, ayudará a proteger el medio ambiente&lt;/span&gt;&lt;span style="font-family:Times New Roman; font-size:9pt"&gt;.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No conservar a temperatura superior a 25ºC.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Una vez abierto, desechar después de 21 días.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No utilice HIPÉRICO ARKOPHARMA después de la fecha de caducidad que aparece en el envase, después de la abreviatura “CAD”. La fecha de caducidad es el último día del mes que se indica.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los medicamentos que no necesite en el Punto SIGRE&lt;/span&gt; &lt;span&gt;de la farmacia. En caso de duda pregunte a su farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma, ayudará a proteger el medio ambiente&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
            &lt;div&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Composici&amp;#243;n de HIP&amp;#201;RICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Cada c&amp;#225;psula contiene como principio activo:&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;175 mg de extracto seco hidroalcoh&amp;#243;lico de&lt;/span&gt; &lt;em&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;L. herba (sumidades floridas de hip&amp;#233;rico) (3.5-6:1) que corresponden a: 0,27 mg a 0,46mg de hipericinas totales, &amp;#8805; 10,5 mg de flavonoides y 2,71 mg a 4,63 mg de hiperforina.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Disolvente de extracci&amp;#243;n: etanol 60% m/m&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Los dem&amp;#225;s componentes son los excipientes: celulosa microcristalina, estearato de magnesio, s&amp;#237;lice coloidalhidr&amp;#243;foba y maltodextrina.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Composici&amp;#243;n de la&lt;/span&gt; &lt;span style="font-family:Times New Roman; font-size:11pt"&gt;c&amp;#225;psula: hipromelosa, di&amp;#243;xido de titanio y &amp;#243;xido de hierro amarillo.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Aspecto del producto y contenido del envase&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Existe 1 presentaci&amp;#243;n en frascos que contienen 42 c&amp;#225;psulas, con una bolsita absorbente en su interior.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;Una vez abierto el envase, se retirar&amp;#225; la bolsita absorbente que no es apta para consumo humano y no debe ser ingerida.&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;&amp;#xa0;&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Titular de la autorizaci&amp;#243;n de comercializaci&amp;#243;n y responsable de la fabricaci&amp;#243;n:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Titular&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Arkopharma LABORATORIOS, S.A.U,&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;C/ Amaltea, 9&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;28045 MADRID&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Responsable de la fabricaci&amp;#243;n&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;LABORATOIRES PHARMACEUTIQUES&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;BP 28 &amp;#8211; 06511 CARROS Cedex - FRANCE&lt;/span&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;Fecha de la &amp;#250;ltima revisi&amp;#243;n de este prospecto: septiembre 2016&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; line-height:115%; font-size:11pt"&gt;&lt;strong&gt;&lt;span style="font-family:Times New Roman; font-size:11pt;"&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-    &lt;p style="margin:0pt; text-align:justify; line-height:115%; font-size:11pt"&gt;&lt;span style="font-family:Times New Roman; font-size:11pt"&gt;La informaci&amp;#243;n detallada y actualizada de este medicamento est&amp;#225; disponible en la p&amp;#225;gina web de la Agencia Espa&amp;#241;ola de Medicamentos y Productos Sanitarios (AEMPS)&lt;/span&gt; &lt;a href="http://www.aemps.gob.es/"&gt;&lt;u&gt;&lt;span style="font-family:Times New Roman; font-size:11pt; color:#0000ff"&gt;http://www.aemps.gob.es/&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Composici&amp;#243;n de HIP&amp;#201;RICO ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Cada c&amp;#225;psula contiene como principio activo:&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;175 mg de extracto seco hidroalcoh&amp;#243;lico de&lt;/span&gt; &lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L. herba (sumidades floridas de hip&amp;#233;rico) (3.5-6:1) que corresponden a: 0,27 mg a 0,46mg de hipericinas totales, &amp;#8805; 10,5 mg de flavonoides y 2,71 mg a 4,63 mg de hiperforina.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Disolvente de extracci&amp;#243;n: etanol 60% m/m&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Los dem&amp;#225;s componentes son los excipientes: celulosa microcristalina, estearato de magnesio, s&amp;#237;lice coloidalhidr&amp;#243;foba y maltodextrina.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Composici&amp;#243;n de la&lt;/span&gt; &lt;span&gt;c&amp;#225;psula: hipromelosa, di&amp;#243;xido de titanio y &amp;#243;xido de hierro amarillo.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Aspecto del producto y contenido del envase&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Existe 1 presentaci&amp;#243;n en frascos que contienen 42 c&amp;#225;psulas, con una bolsita absorbente en su interior.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Una vez abierto el envase, se retirar&amp;#225; la bolsita absorbente que no es apta para consumo humano y no debe ser ingerida.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Titular de la autorizaci&amp;#243;n de comercializaci&amp;#243;n y responsable de la fabricaci&amp;#243;n:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Titular&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Arkopharma LABORATORIOS, S.A.U,&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;C/ Amaltea, 9&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;28045 MADRID&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Responsable de la fabricaci&amp;#243;n&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;LABORATOIRES PHARMACEUTIQUES&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;BP 28 &amp;#8211; 06511 CARROS Cedex - FRANCE&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Fecha de la &amp;#250;ltima revisi&amp;#243;n de este prospecto: septiembre 2016&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;La informaci&amp;#243;n detallada y actualizada de este medicamento est&amp;#225; disponible en la p&amp;#225;gina web de la Agencia Espa&amp;#241;ola de Medicamentos y Productos Sanitarios (AEMPS)&lt;/span&gt; &lt;a href="http://www.aemps.gob.es/"&gt;&lt;u&gt;&lt;span&gt;http://www.aemps.gob.es/&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;/p&gt;
   &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/pmswi</t>
-  </si>
-  <si>
-    <t>HIPÉRICO ARKOPHARMA hard capsules</t>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+&lt;div&gt;
+    &lt;p&gt;&lt;span&gt;Herbal medicine for the symptomatic treatment of low mood, lack of interest, fatigue, and sleep disturbances.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;You should consult a doctor if your condition worsens or does not improve after 28 days.&lt;/span&gt;&lt;/p&gt;
+  &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Do not take HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;ul&gt;
+      &lt;li&gt; &lt;span&gt;If you are under 18 years old.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;If you are pregnant or breastfeeding.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;If you are allergic to&lt;/span&gt; &lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L. or any of the components of the medicine.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;If you are undergoing surgery requiring treatment with other medications.&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt; &lt;span&gt;If you are being treated with any of the medicines listed in this leaflet. Some components of hypericum (&lt;em&gt;Hypericum perforatum&lt;/em&gt; L.) can cause pharmacokinetic interactions with numerous medicines, potentially reducing their effectiveness (see information on taking other medicines).&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Warnings and precautions&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Consult your pharmacist, doctor, or nurse before starting HYPERICUM ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;If you are taking HYPERICUM ARKOPHARMA, avoid intense UV exposure (prolonged sun exposure or tanning beds).&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Women using oral contraceptives should not use this medicine simultaneously, as it may cause intermenstrual bleeding and reduce the effectiveness of contraceptives.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Avoid intense solar radiation or artificial ultraviolet radiation while taking this medicine. Its use is not recommended during phototherapy treatments (UVA light therapy) or if undergoing any photodiagnostic tests, particularly in light-skinned individuals, as it may cause sunburn-like reactions on exposed skin.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;If you have been diagnosed with depression and are being treated with psychotropic drugs, selective serotonin reuptake inhibitors, or triptans, do not use this medicine.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Stop taking this medicine 10 days before surgery or any planned clinical intervention to avoid potential interactions with other medicines during general or local anesthesia.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Children and adolescents&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Children and adolescents under 18 years should not use this medicine.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Use of HYPERICUM ARKOPHARMA with other medicines&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Some components of hypericum (&lt;em&gt;Hypericum perforatum&lt;/em&gt; L.) may reduce the therapeutic effects of other medicines when taken simultaneously. These include medicines recommended by your doctor and over-the-counter medications.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Patients taking the following medicines should not start hypericum preparations without consulting their doctor or pharmacist:&lt;/span&gt;&lt;/p&gt;
+    &lt;ul&gt;
+      &lt;li&gt;&lt;span&gt;For AIDS (antiretrovirals)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For transplant rejection (cyclosporine)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For epilepsy&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For the heart (digoxin)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For asthma or chronic bronchitis (theophylline)&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For migraines&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;For depression&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;Oral anticoagulants&lt;/span&gt;&lt;/li&gt;
+      &lt;li&gt;&lt;span&gt;Oral contraceptives&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;
+    &lt;p&gt;&lt;span&gt;For more information, consult the following list:&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Do not take this medicine if you are being treated with any of the medicines listed below:&lt;/span&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;5HT agonists (Triptans): such as almotriptan, eletriptan, frovatriptan, naratriptan, rizatriptan, sumatriptan, zolmitriptan;&lt;/li&gt;
+&lt;li&gt;Analgesics: such as tramadol;&lt;/li&gt;
+&lt;li&gt;Anesthetics/medications for surgical preparation: such as fentanyl, propofol, midazolam, sevoflurane;&lt;/li&gt;
+&lt;li&gt;Anxiolytics: such as buspirone;&lt;/li&gt;
+&lt;li&gt;Hormonal antagonists: such as exemestane;&lt;/li&gt;
+&lt;li&gt;Antianginal drugs: such as ivabradine;&lt;/li&gt;
+&lt;li&gt;Antiarrhythmics: such as amiodarone; Antibiotics: such as erythromycin, clarithromycin, telithromycin;&lt;/li&gt;
+&lt;li&gt;Anticoagulants: such as warfarin, acenocoumarol;&lt;/li&gt;
+&lt;li&gt;Hormonal contraceptives: oral contraceptives, emergency hormonal contraceptives (morning-after pill), implants and hormonal injections, transdermal patches, intrauterine devices with hormones;&lt;/li&gt;
+&lt;li&gt;Anticonvulsants (antiepileptics): such as carbamazepine, phenobarbital, phenytoin, primidone, sodium valproate;&lt;/li&gt;
+&lt;li&gt;Tricyclic antidepressants: such as amitriptyline, clomipramine; MAOIs: such as moclobemide; SSRIs: such as citalopram, fluoxetine, fluvoxamine, paroxetine, sertraline; Other antidepressants: such as duloxetine, venlafaxine;&lt;/li&gt;
+&lt;li&gt;Antifungals: such as itraconazole, voriconazole;&lt;/li&gt;
+&lt;li&gt;Antimalarials: such as lumefantrine;&lt;/li&gt;
+&lt;li&gt;Antiparkinsonian drugs: such as rasagiline;&lt;/li&gt;
+&lt;li&gt;Antipsychotics: such as aripiprazole;&lt;/li&gt;
+&lt;li&gt;All antivirals: such as Protease Inhibitors (amprenavir, atazanavir, darunavir, fosamprenavir, indinavir, lopinavir, nelfinavir, ritonavir, saquinavir, tipranavir); Non-nucleoside reverse transcriptase inhibitors (efavirenz, nevirapine, delavirdine);&lt;/li&gt;
+&lt;li&gt;Aprepitant (used to prevent vomiting after chemotherapy treatment);&lt;/li&gt;
+&lt;li&gt;Barbiturates: such as butobarbital, phenobarbital;&lt;/li&gt;
+&lt;li&gt;Calcium channel blockers: such as amlodipine, nifedipine, verapamil, felodipine;&lt;/li&gt;
+&lt;li&gt;Cytotoxic drugs: such as irinotecan, dasatinib, erlotinib, imatinib, sorafenib, sunitinib, etoposide, mitotane;&lt;/li&gt;
+&lt;li&gt;Diuretics: such as eplerenone;&lt;/li&gt;
+&lt;li&gt;CNS stimulants: such as methylphenidate;&lt;/li&gt;
+&lt;li&gt;Cardiac glycosides: such as digoxin;&lt;/li&gt;
+&lt;li&gt;Oral hypoglycemics (antidiabetics): such as gliclazide;&lt;/li&gt;
+&lt;li&gt;Lipid-lowering agents: such as simvastatin, atorvastatin;&lt;/li&gt;
+&lt;li&gt;Thyroid hormones: all drugs in this class, including thyroxine;&lt;/li&gt;
+&lt;li&gt;Proton pump inhibitors: such as lansoprazole, omeprazole;&lt;/li&gt;
+&lt;li&gt;Immunosuppressants: such as cyclosporine, tacrolimus;&lt;/li&gt;
+&lt;li&gt;Lithium;&lt;/li&gt;
+&lt;li&gt;Theophylline;&lt;/li&gt;
+&lt;li&gt;Hormone replacement therapy: such as patches, gels, vaginal ring.&lt;/li&gt;
+&lt;/ul&gt;
+    &lt;p&gt;&lt;span&gt;Concomitant treatment of HYPERICUM ARKOPHARMA with anticoagulants (such as phenprocoumon, warfarin, clopidogrel, acetylsalicylic acid, and other non-steroidal anti-inflammatory drugs) may increase their effect.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;HYPERICUM ARKOPHARMA may affect the metabolism of other medicines, potentially altering their potency and/or duration of effect. Therefore, consult your doctor or pharmacist before taking HYPERICUM ARKOPHARMA with other treatments.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Inform your doctor or pharmacist if you are taking or have recently taken any other medication, including those obtained without a prescription.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Also inform your doctor or pharmacist about any suspected changes in the effects of medications you are taking alongside HYPERICUM ARKOPHARMA.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Taking HYPERICUM ARKOPHARMA with food and drinks&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;Food and beverages have no influence on the effect of the medicine.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Pregnancy, breastfeeding, and fertility&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;If you are pregnant, breastfeeding, think you may be pregnant, or are planning to have a baby, consult your pharmacist or doctor before using this medicine. Its use is not recommended in these circumstances.&lt;/span&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;strong&gt;&lt;span&gt;Driving and using machines&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+    &lt;p&gt;&lt;span&gt;No studies have been conducted on the ability to drive and use machines.&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;div&gt;
+        &lt;p&gt;&lt;span&gt;Follow the administration instructions for the medicine as described in this leaflet or as directed by your pharmacist, doctor, or nurse. If in doubt, consult your pharmacist, doctor, or nurse.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;The recommended dose is:&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Adults: take 2 capsules, 2 or 3 times a day with a glass of water.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;It is advisable to take the doses at the same times every day.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;This medicine is for oral use.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;The treatment duration is 6 weeks.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;The effect of the medicine usually appears after 4 weeks. If symptoms persist, you should consult a healthcare professional.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Once the package is opened, remove the absorbent sachet, which is not suitable for human consumption and must not be ingested.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Use in children and adolescents&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Do not use in children and adolescents under 18 years of age.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;If you take more HYPERICUM ARKOPHARMA than you should&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;If you have taken an excessive dose of HYPERICUM ARKOPHARMA, seizures or confusion may occur.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;In case of an excessive dose of hypericum, protect yourself from sunlight or any other UV ray source for 1-2 weeks.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;In case of overdose or accidental ingestion, immediately consult your pharmacist or doctor, or call the Toxicology Information Service at 91 562 04 20, indicating the product and the quantity ingested.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;If you forget to take HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;If you forget a dose, take the medicine as soon as possible and continue the treatment as prescribed. However, if it is close to the time for the next dose, it is better to skip the missed dose and wait for the next one. Never take a double dose to make up for the missed dose.&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;   
+    &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;div&gt;
+        &lt;p&gt;&lt;span&gt;Like all medicines, this medicine can cause side effects, although not everyone will experience them.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;In rare cases, with a frequency affecting fewer than one in 1000 patients, digestive problems such as nausea, abdominal pain, diarrhea, loss of appetite, or skin reactions such as itching, irritation, redness (hives), and very rarely, sunburn-like reactions on skin exposed to intense sunlight or artificial radiation have been reported.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Headache, neuropathy, anxiety, dizziness, fatigue, mania, or allergies have also been reported, but the frequency of these occurrences is unknown.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Reporting adverse reactions&lt;/span&gt;&lt;/strong&gt;&lt;span&gt;:&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;If you experience any side effects, consult your doctor or pharmacist, even if they are not listed in this leaflet. You can also report them directly through the Spanish Pharmacovigilance System for Medicines for Human Use:&lt;/span&gt; &lt;a href="https://www.notificaram.es"&gt;&lt;u&gt;&lt;span&gt;https://www.notificaram.es&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;span&gt;. By reporting side effects, you can help provide more information about the safety of this medicine.&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;div&gt;
+        &lt;p&gt;&lt;span&gt;Keep this medicine out of the sight and reach of children.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Do not store at a temperature above 25ºC.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Once opened, discard after 21 days.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Do not use HYPERICUM ARKOPHARMA after the expiration date stated on the package, following the abbreviation “EXP.” The expiration date refers to the last day of the indicated month.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Medicines should not be disposed of via wastewater or household waste. Take unused packages and medicines to the SIGRE Point&lt;/span&gt; &lt;span&gt;at the pharmacy. If in doubt, ask your pharmacist how to dispose of medicines and packaging you no longer need. This will help protect the environment&lt;/span&gt;&lt;span&gt;.&lt;/span&gt;&lt;/p&gt;
+    &lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt; 
+    &lt;div&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Composition of HYPERICUM ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Each capsule contains the active ingredient:&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;175 mg of hydroalcoholic dry extract of&lt;/span&gt; &lt;em&gt;&lt;span&gt;Hypericum perforatum&lt;/span&gt;&lt;/em&gt; &lt;span&gt;L. herba (flowering tops of St. John's wort) (3.5-6:1) corresponding to: 0.27 mg to 0.46 mg of total hypericins, &amp;#8805; 10.5 mg of flavonoids, and 2.71 mg to 4.63 mg of hyperforin.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Extraction solvent: ethanol 60% m/m&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Other ingredients (excipients): microcrystalline cellulose, magnesium stearate, colloidal anhydrous silica, and maltodextrin.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Capsule composition: hypromellose, titanium dioxide, and yellow iron oxide.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Product appearance and package contents&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;There is one presentation in bottles containing 42 capsules, with an absorbent sachet inside.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Once the container is opened, the absorbent sachet should be removed, as it is not suitable for human consumption and must not be ingested.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Marketing authorization holder and manufacturer:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Holder&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Arkopharma LABORATORIES, S.A.U,&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;C/ Amaltea, 9&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;28045 MADRID&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Manufacturer&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;ARKOPHARMA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;LABORATOIRES PHARMACEUTIQUES&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;BP 28 &amp;#8211; 06511 CARROS Cedex - FRANCE&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;Date of the last revision of this leaflet: September 2016&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;strong&gt;&lt;span&gt;&amp;#xa0;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span&gt;Detailed and updated information about this medicine is available on the website of the Spanish Agency of Medicines and Medical Devices (AEMPS)&lt;/span&gt; &lt;a href="http://www.aemps.gob.es/"&gt;&lt;u&gt;&lt;span&gt;http://www.aemps.gob.es/&lt;/span&gt;&lt;/u&gt;&lt;/a&gt;&lt;/p&gt;
+    &lt;/div&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1586,24 @@
         <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20">
+        <v>79963</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1468,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,37 +1762,37 @@
         <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>143</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>151</v>
       </c>
       <c r="D3" s="20">
         <v>79963</v>
@@ -1596,6 +1805,30 @@
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2212,7 @@
         <v>79963</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>130</v>
